--- a/san/and.xlsx
+++ b/san/and.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -373,7 +373,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
